--- a/biology/Botanique/Citrus_hongheensis/Citrus_hongheensis.xlsx
+++ b/biology/Botanique/Citrus_hongheensis/Citrus_hongheensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Citrus hongheensis, papeda du Honghe, en français papeda du Fleuve Rouge est une population polymorphes d'agrumes mi-sauvages ml-cultivés, endémiques de la région de la Préfecture autonome Hani et Yi de Honghe, dans le sud-est du Yunnan, région de climat de mousson du plateau subtropical (1 500 mm de précipitation par an).
 L'espèce est en danger critique d'extinction (2023).
@@ -512,12 +524,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">红河 (Hónghé) est le Fleuve Rouge. 紅河橙 (Hónghé chéng) Oranger du Fleuve Rouge, en latin Citrus hongheensis. Yin‐Min Ye, LXiao‐Dong Liu, Su‐Qin Ding et Ming‐Qing Liang sont les descripteurs dans Citrus hongheensis a new species found from Subgen. Papeda Swingle in Citrus revue L. Acta Phytotaxon Sinensis en 1976. Les auteurs notent l'affinité avec C. latipes, le rattache à l'ex sous-genre Papeda de Swingle et illustrent la publication d'un étonnante vue de la feuille[1].
-Alei est donné comme synonyme[2]: Ale est le Fleuve Rouge en langue locale Hani. On cite aussi Honghe Dayicheng ou Honghecheng[3].
-Espèce nouvelle
-Il s'agit bien d'une espèce nouvelle admise[4] et non d'un synonyme d'une espèce déjà décrire (y compris de C. cavaleriei H. Lév. ex Cavalerie = C. ichangensis[5]). Les auteurs écrivent  «Cette espèce a de grandes fleurs et la longueur des feuilles alaires est nettement plus longue que la feuille principale. Elle est différente de C. micrantha, C. celebica, C. macroptera et C. hystrix. Parmi les C. latipes publiées dans le monde avec des feuilles alaires plus longues que la feuille principale, on trouve C. latipes, C. macroptera var. annamensis (C. combara) et C. macroptera. var. kerii.  Ces espèces et variétés ont toutes de petites fleurs et des pétioles courts, de 7 à 11 cm, et se distinguent facilement des orangers du Fleuve Rouge»[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">红河 (Hónghé) est le Fleuve Rouge. 紅河橙 (Hónghé chéng) Oranger du Fleuve Rouge, en latin Citrus hongheensis. Yin‐Min Ye, LXiao‐Dong Liu, Su‐Qin Ding et Ming‐Qing Liang sont les descripteurs dans Citrus hongheensis a new species found from Subgen. Papeda Swingle in Citrus revue L. Acta Phytotaxon Sinensis en 1976. Les auteurs notent l'affinité avec C. latipes, le rattache à l'ex sous-genre Papeda de Swingle et illustrent la publication d'un étonnante vue de la feuille.
+Alei est donné comme synonyme: Ale est le Fleuve Rouge en langue locale Hani. On cite aussi Honghe Dayicheng ou Honghecheng.
 </t>
         </is>
       </c>
@@ -543,22 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le spécimen type de la primo description a été collecté dans le Comté de Honghe à une altitude de 1 820 m (altitude moyenne de la population 800 à 2 000 m), il est conservé à l'Institut de recherche sur les agrumes de l'Académie chinoise des sciences agricoles.
-Bel arbre d'environ 10 m de haut sur 9 à 10 m de circonférence, épineux. La feuille 5,5 cm de long, 2 cm de large, à un pétiole est extrêmement long jusqu'à 18 cm. Les fleurs groupées en 5 à 9 fleurs, avec boutons floraux sont oblongs, violets, de 1,5 cm de long et 0,8 cm de large avant ouverture. La fleur blanche est grande de 3 à 3,5 cm de diamètre, 4 ou 5 pétales, 16 à 18 étamines[1].
-Le fruit plus petit qu'un pamplemousse de la taille d'une grosse orange[7] a une peau épaisse, les cellules huileuses sont saillantes, les graines sont grandes et mono-embryonnées. La végétation est continue dans son habitat naturel, avec 3 ou 4 fructifications abondantes par an chez l'arbre adulte[8]. 
-Un spécimen est conservé à Givaudan Citrus Variety Collection at UC Riverside qui le décrit comme plus vigoureux qu'Ichang papeda[9].
-Variétés
-La diversité génétique a été mesurée en 2021 sur la base des marqueurs ISSR , les auteurs qualifient «les variations détectées d'un niveau relativement élevé de diversité génétique intraspécifique» ce qui n'est pas sans poser des problèmes de conservation[10].
-Z. Bao et al. (1988) ont décrit une variété locale Yuanjiang Papeda qui diffère du type par sa taille (17 m) ses énormes fleurs environ 4,1 cm de diamètre et ses feuilles aux pétioles ailés 1 à 2 fois plus longs que les limbes des feuilles. Les fruits  de 15 cm de diamètre avec une peau très épaisse (3 cm)[11].
-Un agrume mi-sauvage mi-cultivé
-La population locale de Hani cultive les Papeda du Fleuve Rouge. Les jeunes feuilles sont utilisées comme aromate. Les fruits ont le même usage médical que ceux du Poncirus trifoliata. Les arbres ont une signification religieuse apotropaïque. Le statut sauvage de la plante semble contesté, Yang Yang et al. écrivent que les 10 populations restantes du bassin versant de la Rivière Rouge (environ 50 individus chacune, 7 d'entre elles ne comptaient que 20 arbres en 2009) ne se trouvent qu'autour des villages sont des populations cultivées ou reliques. Elles sont faites d'arbres adultes, ils notent qu'il «n’est pas clair si leur utilisation par la population locale joue un rôle dans la conservation ou dans la dégradation de sa diversité génétique»[10].
-Phylogénie
-Le génome a été séquencé 2010[13] puis complètement en 2020[14]. Il mesure 160 275 pb avec 80 gènes codant pour des protéines, 30 gènes d'ARNt et 4 gènes d'ARNr. Le papeda du Fleuve Rouge est génétiquement étroitement apparenté au pamplemoussier (Citrus maxima). Zi-hao Zhang et al. reconstituent un arbre phylogénétique où C. hongheensis diverge de C. maxima et C. sinensis[14]. En 2023, Zhi-Meng Gan et al. font une analyse pan-génomique des gènes KNOX chez 17 Citrinae. Leur arbre phylogénétique et le nombre de gènes KNOX dans le genre Citrus et ses espèces étroitement apparentées confirme la proximité avec le pamplemoussier (C. maxima = C. grandis) même si le feuillage n'a rien de comparable[12].
+          <t>Espèce nouvelle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit bien d'une espèce nouvelle admise et non d'un synonyme d'une espèce déjà décrire (y compris de C. cavaleriei H. Lév. ex Cavalerie = C. ichangensis). Les auteurs écrivent  «Cette espèce a de grandes fleurs et la longueur des feuilles alaires est nettement plus longue que la feuille principale. Elle est différente de C. micrantha, C. celebica, C. macroptera et C. hystrix. Parmi les C. latipes publiées dans le monde avec des feuilles alaires plus longues que la feuille principale, on trouve C. latipes, C. macroptera var. annamensis (C. combara) et C. macroptera. var. kerii.  Ces espèces et variétés ont toutes de petites fleurs et des pétioles courts, de 7 à 11 cm, et se distinguent facilement des orangers du Fleuve Rouge».
 </t>
         </is>
       </c>
@@ -584,12 +592,162 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le spécimen type de la primo description a été collecté dans le Comté de Honghe à une altitude de 1 820 m (altitude moyenne de la population 800 à 2 000 m), il est conservé à l'Institut de recherche sur les agrumes de l'Académie chinoise des sciences agricoles.
+Bel arbre d'environ 10 m de haut sur 9 à 10 m de circonférence, épineux. La feuille 5,5 cm de long, 2 cm de large, à un pétiole est extrêmement long jusqu'à 18 cm. Les fleurs groupées en 5 à 9 fleurs, avec boutons floraux sont oblongs, violets, de 1,5 cm de long et 0,8 cm de large avant ouverture. La fleur blanche est grande de 3 à 3,5 cm de diamètre, 4 ou 5 pétales, 16 à 18 étamines.
+Le fruit plus petit qu'un pamplemousse de la taille d'une grosse orange a une peau épaisse, les cellules huileuses sont saillantes, les graines sont grandes et mono-embryonnées. La végétation est continue dans son habitat naturel, avec 3 ou 4 fructifications abondantes par an chez l'arbre adulte. 
+Un spécimen est conservé à Givaudan Citrus Variety Collection at UC Riverside qui le décrit comme plus vigoureux qu'Ichang papeda.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Citrus_hongheensis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Citrus_hongheensis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La diversité génétique a été mesurée en 2021 sur la base des marqueurs ISSR , les auteurs qualifient «les variations détectées d'un niveau relativement élevé de diversité génétique intraspécifique» ce qui n'est pas sans poser des problèmes de conservation.
+Z. Bao et al. (1988) ont décrit une variété locale Yuanjiang Papeda qui diffère du type par sa taille (17 m) ses énormes fleurs environ 4,1 cm de diamètre et ses feuilles aux pétioles ailés 1 à 2 fois plus longs que les limbes des feuilles. Les fruits  de 15 cm de diamètre avec une peau très épaisse (3 cm).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Citrus_hongheensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Citrus_hongheensis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Un agrume mi-sauvage mi-cultivé</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La population locale de Hani cultive les Papeda du Fleuve Rouge. Les jeunes feuilles sont utilisées comme aromate. Les fruits ont le même usage médical que ceux du Poncirus trifoliata. Les arbres ont une signification religieuse apotropaïque. Le statut sauvage de la plante semble contesté, Yang Yang et al. écrivent que les 10 populations restantes du bassin versant de la Rivière Rouge (environ 50 individus chacune, 7 d'entre elles ne comptaient que 20 arbres en 2009) ne se trouvent qu'autour des villages sont des populations cultivées ou reliques. Elles sont faites d'arbres adultes, ils notent qu'il «n’est pas clair si leur utilisation par la population locale joue un rôle dans la conservation ou dans la dégradation de sa diversité génétique».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Citrus_hongheensis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Citrus_hongheensis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le génome a été séquencé 2010 puis complètement en 2020. Il mesure 160 275 pb avec 80 gènes codant pour des protéines, 30 gènes d'ARNt et 4 gènes d'ARNr. Le papeda du Fleuve Rouge est génétiquement étroitement apparenté au pamplemoussier (Citrus maxima). Zi-hao Zhang et al. reconstituent un arbre phylogénétique où C. hongheensis diverge de C. maxima et C. sinensis. En 2023, Zhi-Meng Gan et al. font une analyse pan-génomique des gènes KNOX chez 17 Citrinae. Leur arbre phylogénétique et le nombre de gènes KNOX dans le genre Citrus et ses espèces étroitement apparentées confirme la proximité avec le pamplemoussier (C. maxima = C. grandis) même si le feuillage n'a rien de comparable.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Citrus_hongheensis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Citrus_hongheensis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yang Yang et al. décrivent le papeda du Fleuve Rouge comme espèce en danger critique d'extinction[15] (deuxième catégorie dans le Livre rouge de Chine[10] - équivalent CR de l'UICN). Gayle M. Volk et al. (2023) le classent dans les espèces faisant l'objet d'une surveillance en Chine[16].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yang Yang et al. décrivent le papeda du Fleuve Rouge comme espèce en danger critique d'extinction (deuxième catégorie dans le Livre rouge de Chine - équivalent CR de l'UICN). Gayle M. Volk et al. (2023) le classent dans les espèces faisant l'objet d'une surveillance en Chine.
 </t>
         </is>
       </c>
